--- a/000 AGENCIA INFORMACION DI/Colecciones_2.xlsx
+++ b/000 AGENCIA INFORMACION DI/Colecciones_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2103A3CB-70FB-44BB-97A2-E5E65AD97F0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBB485-2A1B-42AF-A966-48580C547100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7345EFD8-A04C-4A0A-9878-082A8059EEE0}"/>
   </bookViews>
@@ -506,7 +506,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="138">
+  <dxfs count="26">
     <dxf>
       <font>
         <strike val="0"/>
@@ -535,6 +535,91 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -647,7 +732,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <color theme="5" tint="-0.499984740745262"/>
       </font>
@@ -679,68 +764,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="4" tint="-0.499984740745262"/>
@@ -760,1167 +783,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="5" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2020,11 +882,11 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1582420</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
+      <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1725930</xdr:colOff>
+      <xdr:colOff>1722755</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>636</xdr:rowOff>
     </xdr:to>
@@ -2096,7 +958,7 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>311150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
@@ -2106,8 +968,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Priorización">
@@ -2130,7 +992,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2189,8 +1051,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>634</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Sector 1">
@@ -2213,7 +1075,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2267,8 +1129,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>636</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="Estado 1">
@@ -2291,7 +1153,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2402,7 +1264,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}" name="colecciones" displayName="colecciones" ref="A9:G87" totalsRowShown="0">
-  <autoFilter ref="A9:G87" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}"/>
+  <autoFilter ref="A9:G87" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Economía"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{909B5BEE-34AE-44B8-AC66-B71A5D624FA7}" name="idcoleccion">
       <calculatedColumnFormula>+IF(D10=D9,A9+1,C10*10)</calculatedColumnFormula>
@@ -2413,8 +1281,8 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F950F454-D028-40BF-A08B-041925C65DED}" name="Sector"/>
     <tableColumn id="5" xr3:uid="{A376CAE3-3CC3-45FE-86FA-D9E294F11046}" name="Descripción"/>
-    <tableColumn id="6" xr3:uid="{28508418-56ED-4966-896F-937BE6CD88EA}" name="Estado" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{64D0B589-F2A6-486B-A405-7475F1605B06}" name="Priorización" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{28508418-56ED-4966-896F-937BE6CD88EA}" name="Estado" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{64D0B589-F2A6-486B-A405-7475F1605B06}" name="Priorización" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2431,7 +1299,7 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{D95B909F-26C9-4FFE-8ED2-2A15636478F3}" name="idcoleccion"/>
     <tableColumn id="2" xr3:uid="{91AE7E81-6218-4249-B80D-A2BEA29F3922}" name="Colección"/>
-    <tableColumn id="3" xr3:uid="{2BE67907-3B97-4789-8ED5-FD8439737CB0}" name="idsector" dataDxfId="137">
+    <tableColumn id="3" xr3:uid="{2BE67907-3B97-4789-8ED5-FD8439737CB0}" name="idsector" dataDxfId="2">
       <calculatedColumnFormula>VLOOKUP(colecciones3[[#This Row],[Sector]], CHOOSE({2,1},colecciones[idsector],colecciones[Sector]),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{DCAE34CC-8D89-44C7-84C1-210EED36D025}" name="Sector"/>
@@ -2744,7 +1612,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2780,7 +1648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <f>+C10*10</f>
         <v>100</v>
@@ -2801,7 +1669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <f>+IF(D11=D10,A10+1,C11*10)</f>
         <v>101</v>
@@ -2823,7 +1691,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" ref="A12:A76" si="0">+IF(D12=D11,A11+1,C12*10)</f>
         <v>102</v>
@@ -2845,7 +1713,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>+IF(D13=D12,A12+1,C13*10)</f>
         <v>103</v>
@@ -2865,7 +1733,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -2946,7 +1814,7 @@
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2989,7 +1857,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>+IF(D20=D19,A19+1,C20*10)</f>
         <v>160</v>
@@ -3011,7 +1879,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>+IF(D21=D20,A20+1,C21*10)</f>
         <v>161</v>
@@ -3033,7 +1901,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" ref="A22:A24" si="2">+IF(D22=D21,A21+1,C22*10)</f>
         <v>162</v>
@@ -3053,7 +1921,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -3073,7 +1941,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -3093,7 +1961,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -3115,7 +1983,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -3135,7 +2003,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -3155,7 +2023,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>221</v>
@@ -3175,7 +2043,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -3195,7 +2063,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -3215,7 +2083,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -3237,7 +2105,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>261</v>
@@ -3259,7 +2127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>262</v>
@@ -3279,7 +2147,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>263</v>
@@ -3301,7 +2169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>264</v>
@@ -3323,7 +2191,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>265</v>
@@ -3343,7 +2211,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>266</v>
@@ -3352,7 +2220,7 @@
         <v>117</v>
       </c>
       <c r="C37">
-        <f t="shared" ref="C36:C38" si="4">+IF(D37=D36,C36,C36+2)</f>
+        <f t="shared" ref="C37:C38" si="4">+IF(D37=D36,C36,C36+2)</f>
         <v>26</v>
       </c>
       <c r="D37" t="s">
@@ -3363,7 +2231,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -3383,7 +2251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>268</v>
@@ -3403,7 +2271,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>269</v>
@@ -3423,7 +2291,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -3443,7 +2311,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -3463,7 +2331,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -3485,7 +2353,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>301</v>
@@ -3507,7 +2375,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -3527,7 +2395,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>303</v>
@@ -3547,7 +2415,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>304</v>
@@ -3567,7 +2435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>305</v>
@@ -3587,7 +2455,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>306</v>
@@ -3607,7 +2475,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>307</v>
@@ -3627,7 +2495,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>320</v>
@@ -3649,7 +2517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>321</v>
@@ -3671,7 +2539,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>322</v>
@@ -3691,7 +2559,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -3711,7 +2579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>324</v>
@@ -3731,7 +2599,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -3751,7 +2619,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -3771,7 +2639,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -3793,7 +2661,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>361</v>
@@ -3815,7 +2683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>362</v>
@@ -3835,7 +2703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>363</v>
@@ -3855,7 +2723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>364</v>
@@ -3875,7 +2743,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>380</v>
@@ -3897,7 +2765,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>381</v>
@@ -3919,7 +2787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>382</v>
@@ -3939,7 +2807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>383</v>
@@ -3961,7 +2829,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>384</v>
@@ -3983,7 +2851,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>385</v>
@@ -4003,7 +2871,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -4025,7 +2893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>401</v>
@@ -4045,7 +2913,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>420</v>
@@ -4065,7 +2933,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>421</v>
@@ -4085,7 +2953,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>440</v>
@@ -4107,7 +2975,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>441</v>
@@ -4129,7 +2997,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>460</v>
@@ -4149,7 +3017,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>461</v>
@@ -4169,7 +3037,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" ref="A77:A81" si="5">+IF(D77=D76,A76+1,C77*10)</f>
         <v>462</v>
@@ -4189,7 +3057,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>480</v>
@@ -4211,7 +3079,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>481</v>
@@ -4233,7 +3101,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>500</v>
@@ -4245,7 +3113,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>501</v>
@@ -4257,9 +3125,9 @@
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82">
-        <f t="shared" ref="A81:A84" si="7">+IF(D82=D81,A81+1,C82*10)</f>
+        <f t="shared" ref="A82:A84" si="7">+IF(D82=D81,A81+1,C82*10)</f>
         <v>502</v>
       </c>
       <c r="C82">
@@ -4269,7 +3137,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -4277,7 +3145,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -4285,15 +3153,15 @@
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85">
-        <f t="shared" ref="A85:A87" si="8">+IF(D85=D84,A84+1,C85*10)</f>
+        <f t="shared" ref="A85" si="8">+IF(D85=D84,A84+1,C85*10)</f>
         <v>505</v>
       </c>
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>+IF(D86=D85,A85+1,C86*10)</f>
         <v>990</v>
@@ -4314,7 +3182,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>+IF(D87=D86,A86+1,C87*10)</f>
         <v>991</v>
@@ -4341,49 +3209,49 @@
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G10:G87">
-    <cfRule type="cellIs" dxfId="22" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="54" operator="equal">
       <formula>"5 - No hay nada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="56" operator="equal">
       <formula>"4 - Se necesitan más datos"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="57" operator="equal">
       <formula>"2 - A medio camino"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="58" operator="equal">
       <formula>"1 - Listo, casi listo"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9:G87">
-    <cfRule type="cellIs" dxfId="23" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="53" operator="equal">
       <formula>"3 - Hay datos, falta armar"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:F87">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="45" operator="equal">
       <formula>"Falta Mucho"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="46" operator="equal">
       <formula>"Medio Camino"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="47" operator="equal">
       <formula>"Casi"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="48" operator="equal">
       <formula>"No está claro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F87">
-    <cfRule type="cellIs" dxfId="27" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="41" operator="equal">
       <formula>"Falta Mucho"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="42" operator="equal">
       <formula>"Medio Camino"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="43" operator="equal">
       <formula>"Casi"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="44" operator="equal">
       <formula>"No está claro"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4734,30 +3602,30 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="F10:F27">
-    <cfRule type="cellIs" dxfId="119" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"Falta Mucho"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>"Medio Camino"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Casi"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"No está claro"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10:G27">
-    <cfRule type="cellIs" dxfId="115" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"5 - No hay nada"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"3 - Interesante pero hay que buscar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"2 - Hay datos, falta armar"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"1 - Listo, casi listo"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/000 AGENCIA INFORMACION DI/Colecciones_2.xlsx
+++ b/000 AGENCIA INFORMACION DI/Colecciones_2.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karen\Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FBB485-2A1B-42AF-A966-48580C547100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E14AF78-3F74-4ED6-9737-6A8E37040132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7345EFD8-A04C-4A0A-9878-082A8059EEE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{7345EFD8-A04C-4A0A-9878-082A8059EEE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="colecciones" sheetId="1" r:id="rId1"/>
-    <sheet name="A futuro" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="colecciones" sheetId="1" r:id="rId2"/>
+    <sheet name="A futuro" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaciónDeDatos_Estado">#N/A</definedName>
@@ -24,17 +25,20 @@
     <definedName name="SegmentaciónDeDatos_Sector1">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="3" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId3"/>
-        <x14:slicerCache r:id="rId4"/>
         <x14:slicerCache r:id="rId5"/>
         <x14:slicerCache r:id="rId6"/>
         <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="124">
   <si>
     <t>Colección</t>
   </si>
@@ -423,6 +427,9 @@
   </si>
   <si>
     <t>5 - No hay nada</t>
+  </si>
+  <si>
+    <t>(en blanco)</t>
   </si>
 </sst>
 </file>
@@ -492,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -502,6 +509,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1197,6 +1205,1259 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="user" refreshedDate="44724.886384143516" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="78" xr:uid="{DEF81F89-B3F3-4358-844C-6E63A28AB6CE}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="colecciones"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="idcoleccion" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="991"/>
+    </cacheField>
+    <cacheField name="Colección" numFmtId="0">
+      <sharedItems containsBlank="1" count="72">
+        <s v="Agricultura"/>
+        <s v="Forestal"/>
+        <s v="Ganadería"/>
+        <s v="Pesca y Acuicultura"/>
+        <s v="Cultura"/>
+        <s v="Comercio"/>
+        <s v="Empresas"/>
+        <s v="Economía"/>
+        <s v="Industrias"/>
+        <s v="Impuestos"/>
+        <s v="Métricas de la educación"/>
+        <s v="Municipio Educación"/>
+        <s v="Educación inicial"/>
+        <s v="Educación primaria y secundaria"/>
+        <s v="Educación superior"/>
+        <s v="Energía"/>
+        <s v="Servicios Financieros"/>
+        <s v="Organismos Intergubernamentales"/>
+        <s v="Salvaguardas"/>
+        <s v="Objetivos de Desarrollo Sostenible"/>
+        <s v="Municipio"/>
+        <s v="Agua y aguas superficiales"/>
+        <s v="Glaciares"/>
+        <s v="Áreas protegidas"/>
+        <s v="Mitigación del cambio climático"/>
+        <s v="Vulnerabilidad al cambio climático"/>
+        <s v="Humedales"/>
+        <s v="Ambiental"/>
+        <s v="Residuos"/>
+        <s v="Desastres"/>
+        <s v="Evaluación de Impacto Ambiental"/>
+        <s v="Metales"/>
+        <s v="Minerales"/>
+        <s v="Violencia contra la Mujer"/>
+        <s v="Salud"/>
+        <s v="Educación"/>
+        <s v="Autonomía Económica"/>
+        <s v="Emprendimiento y Organizaciones"/>
+        <s v="Liderazgo"/>
+        <s v="Política"/>
+        <s v="Trabajo"/>
+        <s v="Elecciones"/>
+        <s v="Programas Gubernamentales"/>
+        <s v="Transparencia"/>
+        <s v="Convención Constitucional"/>
+        <s v="Partidos Políticos y Coaliciones"/>
+        <s v="Combustibles fósiles"/>
+        <s v="Papeles y cartones"/>
+        <s v="Enfermedades mundiales"/>
+        <s v="Estado de la salud"/>
+        <s v="Establecimientos de salud y farmacia"/>
+        <s v="Programas de Salud"/>
+        <s v="Sistemas de cobertura"/>
+        <s v="Delito"/>
+        <s v="Demografía"/>
+        <s v="Migración"/>
+        <s v="Protección"/>
+        <s v="Pueblos Indígenas"/>
+        <s v="Ingresos Históricos"/>
+        <s v="Pobreza"/>
+        <s v="Telecomunicaciones"/>
+        <s v="Internet"/>
+        <s v="Tránsito"/>
+        <s v="Transporte"/>
+        <s v="Alojamiento"/>
+        <s v="Turismo"/>
+        <s v="Viajes"/>
+        <s v="Construcción"/>
+        <s v="Territorio"/>
+        <m/>
+        <s v="Agencia de Información"/>
+        <s v="Ranking"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="idsector" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="99"/>
+    </cacheField>
+    <cacheField name="Sector" numFmtId="0">
+      <sharedItems containsBlank="1" count="22">
+        <s v="Agropecuario y Forestal"/>
+        <s v="Arte y cultura"/>
+        <s v="Economía"/>
+        <s v="Educación"/>
+        <s v="Energía"/>
+        <s v="Finanzas y Seguros"/>
+        <s v="Global"/>
+        <s v="Gobiernos locales"/>
+        <s v="Medio Ambiente"/>
+        <s v="Minería"/>
+        <s v="Mujeres"/>
+        <s v="Política y Gobierno"/>
+        <s v="Industrial"/>
+        <s v="Salud"/>
+        <s v="Social"/>
+        <s v="Socioeconómico"/>
+        <s v="Tecnología Internet y Telecomunicaciones"/>
+        <s v="Transporte y tránsito"/>
+        <s v="Turismo"/>
+        <s v="Vivienda y Construcción"/>
+        <m/>
+        <s v="Genérico"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Descripción" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Estado" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Priorización" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="78">
+  <r>
+    <n v="100"/>
+    <x v="0"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <x v="1"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <x v="2"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <x v="3"/>
+    <n v="10"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <x v="4"/>
+    <n v="12"/>
+    <x v="1"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <x v="5"/>
+    <n v="14"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <x v="6"/>
+    <n v="14"/>
+    <x v="2"/>
+    <m/>
+    <s v="Medio Camino"/>
+    <s v="2 - A medio camino"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <x v="7"/>
+    <n v="14"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <x v="8"/>
+    <n v="14"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <x v="9"/>
+    <n v="14"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <x v="10"/>
+    <n v="16"/>
+    <x v="3"/>
+    <m/>
+    <s v="Medio Camino"/>
+    <s v="2 - A medio camino"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <x v="11"/>
+    <n v="16"/>
+    <x v="3"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <x v="12"/>
+    <n v="16"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <x v="13"/>
+    <n v="16"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <x v="14"/>
+    <n v="16"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="180"/>
+    <x v="15"/>
+    <n v="18"/>
+    <x v="4"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="200"/>
+    <x v="16"/>
+    <n v="20"/>
+    <x v="5"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="220"/>
+    <x v="17"/>
+    <n v="22"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="221"/>
+    <x v="18"/>
+    <n v="22"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="222"/>
+    <x v="19"/>
+    <n v="22"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="240"/>
+    <x v="20"/>
+    <n v="24"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="260"/>
+    <x v="21"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="261"/>
+    <x v="22"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="262"/>
+    <x v="23"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="263"/>
+    <x v="24"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <s v="Medio Camino"/>
+    <s v="2 - A medio camino"/>
+  </r>
+  <r>
+    <n v="264"/>
+    <x v="25"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <s v="Medio Camino"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="265"/>
+    <x v="26"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="266"/>
+    <x v="27"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="267"/>
+    <x v="28"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="268"/>
+    <x v="29"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="269"/>
+    <x v="30"/>
+    <n v="26"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="280"/>
+    <x v="31"/>
+    <n v="28"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="281"/>
+    <x v="32"/>
+    <n v="28"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="300"/>
+    <x v="33"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="301"/>
+    <x v="34"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="302"/>
+    <x v="35"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="303"/>
+    <x v="36"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="304"/>
+    <x v="37"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="305"/>
+    <x v="38"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="306"/>
+    <x v="39"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="307"/>
+    <x v="40"/>
+    <n v="30"/>
+    <x v="10"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="320"/>
+    <x v="41"/>
+    <n v="32"/>
+    <x v="11"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="321"/>
+    <x v="42"/>
+    <n v="32"/>
+    <x v="11"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="322"/>
+    <x v="43"/>
+    <n v="32"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="323"/>
+    <x v="44"/>
+    <n v="32"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="324"/>
+    <x v="45"/>
+    <n v="32"/>
+    <x v="11"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="340"/>
+    <x v="46"/>
+    <n v="34"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="341"/>
+    <x v="47"/>
+    <n v="34"/>
+    <x v="12"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="360"/>
+    <x v="48"/>
+    <n v="36"/>
+    <x v="13"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="361"/>
+    <x v="49"/>
+    <n v="36"/>
+    <x v="13"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="362"/>
+    <x v="50"/>
+    <n v="36"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="363"/>
+    <x v="51"/>
+    <n v="36"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="364"/>
+    <x v="52"/>
+    <n v="36"/>
+    <x v="13"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="380"/>
+    <x v="53"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <s v="Medio Camino"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="381"/>
+    <x v="54"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="382"/>
+    <x v="55"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="383"/>
+    <x v="56"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="384"/>
+    <x v="57"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="385"/>
+    <x v="40"/>
+    <n v="38"/>
+    <x v="14"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="400"/>
+    <x v="58"/>
+    <n v="40"/>
+    <x v="15"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="401"/>
+    <x v="59"/>
+    <n v="40"/>
+    <x v="15"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="420"/>
+    <x v="60"/>
+    <n v="42"/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="421"/>
+    <x v="61"/>
+    <n v="42"/>
+    <x v="16"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="440"/>
+    <x v="62"/>
+    <n v="44"/>
+    <x v="17"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="441"/>
+    <x v="63"/>
+    <n v="44"/>
+    <x v="17"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="460"/>
+    <x v="64"/>
+    <n v="46"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="461"/>
+    <x v="65"/>
+    <n v="46"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="462"/>
+    <x v="66"/>
+    <n v="46"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <s v="4 - Se necesitan más datos"/>
+  </r>
+  <r>
+    <n v="480"/>
+    <x v="67"/>
+    <n v="48"/>
+    <x v="19"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="481"/>
+    <x v="68"/>
+    <n v="48"/>
+    <x v="19"/>
+    <m/>
+    <s v="No está claro"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+  <r>
+    <n v="500"/>
+    <x v="69"/>
+    <n v="50"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="501"/>
+    <x v="69"/>
+    <n v="50"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="502"/>
+    <x v="69"/>
+    <n v="50"/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="503"/>
+    <x v="69"/>
+    <m/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="504"/>
+    <x v="69"/>
+    <m/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="505"/>
+    <x v="69"/>
+    <m/>
+    <x v="20"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="990"/>
+    <x v="70"/>
+    <n v="99"/>
+    <x v="21"/>
+    <m/>
+    <s v="Casi"/>
+    <s v="1 - Listo, casi listo"/>
+  </r>
+  <r>
+    <n v="991"/>
+    <x v="71"/>
+    <n v="99"/>
+    <x v="21"/>
+    <m/>
+    <s v="Falta Mucho"/>
+    <s v="3 - Hay datos, falta armar"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{174BF28D-B80D-4E87-ACCC-2C706AA70A46}" name="TablaDinámica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:B76" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="7">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="72">
+        <item x="70"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="64"/>
+        <item x="27"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="46"/>
+        <item x="5"/>
+        <item x="67"/>
+        <item x="44"/>
+        <item x="4"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="29"/>
+        <item x="7"/>
+        <item x="35"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="41"/>
+        <item x="37"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="48"/>
+        <item x="50"/>
+        <item x="49"/>
+        <item x="30"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="22"/>
+        <item x="26"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="58"/>
+        <item x="61"/>
+        <item x="38"/>
+        <item x="31"/>
+        <item x="10"/>
+        <item x="55"/>
+        <item x="32"/>
+        <item x="24"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="19"/>
+        <item x="17"/>
+        <item x="47"/>
+        <item x="45"/>
+        <item x="3"/>
+        <item x="59"/>
+        <item x="39"/>
+        <item x="51"/>
+        <item x="42"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="71"/>
+        <item x="28"/>
+        <item x="34"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="52"/>
+        <item x="60"/>
+        <item x="68"/>
+        <item x="40"/>
+        <item x="62"/>
+        <item x="43"/>
+        <item x="63"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="33"/>
+        <item x="25"/>
+        <item x="69"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="22">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="21"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="73">
+    <i>
+      <x/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="15"/>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="16"/>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="17"/>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="18"/>
+      <x v="64"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="19"/>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="20"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="21"/>
+      <x v="71"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaciónDeDatos_Sector" xr10:uid="{DDDF6BD8-18C2-4605-8469-42D8940BDFE6}" sourceName="Sector">
   <extLst>
@@ -1264,13 +2525,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}" name="colecciones" displayName="colecciones" ref="A9:G87" totalsRowShown="0">
-  <autoFilter ref="A9:G87" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Economía"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A9:G87" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{909B5BEE-34AE-44B8-AC66-B71A5D624FA7}" name="idcoleccion">
       <calculatedColumnFormula>+IF(D10=D9,A9+1,C10*10)</calculatedColumnFormula>
@@ -1607,25 +2862,636 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BBC9F3-BBBD-4881-BF46-787F8BACFA33}">
+  <dimension ref="A3:B76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="38.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>28</v>
+      </c>
+      <c r="B43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFEBC1E-D1AF-4105-BBD2-AC4835899097}">
   <dimension ref="A9:G87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1648,7 +3514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>+C10*10</f>
         <v>100</v>
@@ -1669,7 +3535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>+IF(D11=D10,A10+1,C11*10)</f>
         <v>101</v>
@@ -1691,7 +3557,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ref="A12:A76" si="0">+IF(D12=D11,A11+1,C12*10)</f>
         <v>102</v>
@@ -1713,7 +3579,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>+IF(D13=D12,A12+1,C13*10)</f>
         <v>103</v>
@@ -1733,7 +3599,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>120</v>
@@ -1755,7 +3621,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>140</v>
@@ -1775,7 +3641,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>141</v>
@@ -1797,7 +3663,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -1817,7 +3683,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>143</v>
@@ -1837,7 +3703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>144</v>
@@ -1857,7 +3723,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>+IF(D20=D19,A19+1,C20*10)</f>
         <v>160</v>
@@ -1879,7 +3745,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>+IF(D21=D20,A20+1,C21*10)</f>
         <v>161</v>
@@ -1901,7 +3767,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" ref="A22:A24" si="2">+IF(D22=D21,A21+1,C22*10)</f>
         <v>162</v>
@@ -1921,7 +3787,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -1941,7 +3807,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -1961,7 +3827,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>180</v>
@@ -1983,7 +3849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>200</v>
@@ -2003,7 +3869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>220</v>
@@ -2023,7 +3889,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>221</v>
@@ -2043,7 +3909,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>222</v>
@@ -2063,7 +3929,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>240</v>
@@ -2083,7 +3949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>260</v>
@@ -2105,7 +3971,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>261</v>
@@ -2127,7 +3993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>262</v>
@@ -2147,7 +4013,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>263</v>
@@ -2169,7 +4035,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>264</v>
@@ -2191,7 +4057,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>265</v>
@@ -2211,7 +4077,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>266</v>
@@ -2231,7 +4097,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>267</v>
@@ -2251,7 +4117,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>268</v>
@@ -2271,7 +4137,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>269</v>
@@ -2291,7 +4157,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>280</v>
@@ -2311,7 +4177,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>281</v>
@@ -2331,7 +4197,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>300</v>
@@ -2353,7 +4219,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>301</v>
@@ -2375,7 +4241,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>302</v>
@@ -2395,7 +4261,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>303</v>
@@ -2415,7 +4281,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>304</v>
@@ -2435,7 +4301,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>305</v>
@@ -2455,7 +4321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>306</v>
@@ -2475,7 +4341,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>307</v>
@@ -2495,7 +4361,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>320</v>
@@ -2517,7 +4383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>321</v>
@@ -2539,7 +4405,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>322</v>
@@ -2559,7 +4425,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>323</v>
@@ -2579,7 +4445,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>324</v>
@@ -2599,7 +4465,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>340</v>
@@ -2619,7 +4485,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>341</v>
@@ -2639,7 +4505,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>360</v>
@@ -2661,7 +4527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>361</v>
@@ -2683,7 +4549,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>362</v>
@@ -2703,7 +4569,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>363</v>
@@ -2723,7 +4589,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>364</v>
@@ -2743,7 +4609,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>380</v>
@@ -2765,7 +4631,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>381</v>
@@ -2787,7 +4653,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>382</v>
@@ -2807,7 +4673,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>383</v>
@@ -2829,7 +4695,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>384</v>
@@ -2851,7 +4717,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>385</v>
@@ -2871,7 +4737,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>400</v>
@@ -2893,7 +4759,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>401</v>
@@ -2913,7 +4779,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>420</v>
@@ -2933,7 +4799,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72">
         <f t="shared" si="0"/>
         <v>421</v>
@@ -2953,7 +4819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <f t="shared" si="0"/>
         <v>440</v>
@@ -2975,7 +4841,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <f t="shared" si="0"/>
         <v>441</v>
@@ -2997,7 +4863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75">
         <f t="shared" si="0"/>
         <v>460</v>
@@ -3017,7 +4883,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76">
         <f t="shared" si="0"/>
         <v>461</v>
@@ -3037,7 +4903,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77">
         <f t="shared" ref="A77:A81" si="5">+IF(D77=D76,A76+1,C77*10)</f>
         <v>462</v>
@@ -3057,7 +4923,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78">
         <f t="shared" si="5"/>
         <v>480</v>
@@ -3079,7 +4945,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79">
         <f t="shared" si="5"/>
         <v>481</v>
@@ -3101,7 +4967,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80">
         <f t="shared" si="5"/>
         <v>500</v>
@@ -3113,7 +4979,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81">
         <f t="shared" si="5"/>
         <v>501</v>
@@ -3125,7 +4991,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82">
         <f t="shared" ref="A82:A84" si="7">+IF(D82=D81,A81+1,C82*10)</f>
         <v>502</v>
@@ -3137,7 +5003,7 @@
       <c r="F82" s="3"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -3145,7 +5011,7 @@
       <c r="F83" s="3"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -3153,7 +5019,7 @@
       <c r="F84" s="3"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85">
         <f t="shared" ref="A85" si="8">+IF(D85=D84,A84+1,C85*10)</f>
         <v>505</v>
@@ -3161,7 +5027,7 @@
       <c r="F85" s="3"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>+IF(D86=D85,A85+1,C86*10)</f>
         <v>990</v>
@@ -3182,7 +5048,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>+IF(D87=D86,A86+1,C87*10)</f>
         <v>991</v>
@@ -3270,7 +5136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591BDD88-79A1-429E-A5E7-352B5F29EE6B}">
   <dimension ref="A9:G27"/>
   <sheetViews>
@@ -3278,17 +5144,17 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" customWidth="1"/>
-    <col min="2" max="2" width="32.90625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="24.6328125" customWidth="1"/>
-    <col min="5" max="5" width="31.90625" customWidth="1"/>
-    <col min="7" max="7" width="34.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -3311,7 +5177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -3327,7 +5193,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>97</v>
       </c>
@@ -3343,7 +5209,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>98</v>
       </c>
@@ -3359,7 +5225,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>99</v>
       </c>
@@ -3375,7 +5241,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>102</v>
       </c>
@@ -3391,7 +5257,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>103</v>
       </c>
@@ -3407,7 +5273,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>104</v>
       </c>
@@ -3423,7 +5289,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>108</v>
       </c>
@@ -3439,7 +5305,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>110</v>
       </c>
@@ -3455,7 +5321,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>109</v>
       </c>
@@ -3471,7 +5337,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>105</v>
       </c>
@@ -3487,7 +5353,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>106</v>
       </c>
@@ -3503,7 +5369,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>107</v>
       </c>
@@ -3519,7 +5385,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>111</v>
       </c>
@@ -3535,7 +5401,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>112</v>
       </c>
@@ -3551,7 +5417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
         <v>113</v>
       </c>
@@ -3567,7 +5433,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
         <v>114</v>
       </c>
@@ -3583,7 +5449,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>115</v>
       </c>
